--- a/_Miscellaneous/Individual_panel/ODRIIS-HH.xlsx
+++ b/_Miscellaneous/Individual_panel/ODRIIS-HH.xlsx
@@ -16330,7 +16330,7 @@
         <v>657</v>
       </c>
       <c r="D77" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="E77" t="s">
         <v>665</v>
@@ -16408,7 +16408,7 @@
         <v>657</v>
       </c>
       <c r="D78" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="E78" t="s">
         <v>665</v>
@@ -23866,7 +23866,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C176" t="s">
         <v>657</v>
@@ -36054,7 +36054,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C337" t="s">
         <v>655</v>
@@ -55130,7 +55130,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C589" t="s">
         <v>654</v>
@@ -55668,7 +55668,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C596" t="s">
         <v>654</v>
@@ -56514,7 +56514,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C607" t="s">
         <v>654</v>
@@ -56670,7 +56670,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C609" t="s">
         <v>654</v>
@@ -57286,7 +57286,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C617" t="s">
         <v>654</v>
@@ -57746,7 +57746,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C623" t="s">
         <v>654</v>
@@ -57980,7 +57980,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C626" t="s">
         <v>654</v>

--- a/_Miscellaneous/Individual_panel/ODRIIS-HH.xlsx
+++ b/_Miscellaneous/Individual_panel/ODRIIS-HH.xlsx
@@ -3951,10 +3951,10 @@
     <t>KUV</t>
   </si>
   <si>
+    <t>MAN</t>
+  </si>
+  <si>
     <t>MANAM</t>
-  </si>
-  <si>
-    <t>MAN</t>
   </si>
   <si>
     <t>NAT</t>
@@ -35008,7 +35008,7 @@
         <v>2029</v>
       </c>
       <c r="P323" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q323" t="s">
         <v>2559</v>
@@ -35017,7 +35017,7 @@
         <v>3177</v>
       </c>
       <c r="S323" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T323" s="0">
         <v>1</v>
@@ -35086,7 +35086,7 @@
         <v>2030</v>
       </c>
       <c r="P324" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q324" t="s">
         <v>2560</v>
@@ -35095,7 +35095,7 @@
         <v>3178</v>
       </c>
       <c r="S324" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T324" s="0">
         <v>1</v>
@@ -35164,7 +35164,7 @@
         <v>1835</v>
       </c>
       <c r="P325" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q325" t="s">
         <v>2561</v>
@@ -35173,7 +35173,7 @@
         <v>2908</v>
       </c>
       <c r="S325" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T325" s="0"/>
       <c r="U325" s="0">
@@ -35238,7 +35238,7 @@
         <v>2031</v>
       </c>
       <c r="P326" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q326" t="s">
         <v>2562</v>
@@ -35247,7 +35247,7 @@
         <v>3179</v>
       </c>
       <c r="S326" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T326" s="0">
         <v>1</v>
@@ -35316,7 +35316,7 @@
         <v>2032</v>
       </c>
       <c r="P327" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q327" t="s">
         <v>2563</v>
@@ -35325,7 +35325,7 @@
         <v>3180</v>
       </c>
       <c r="S327" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T327" s="0">
         <v>1</v>
@@ -35394,7 +35394,7 @@
         <v>2033</v>
       </c>
       <c r="P328" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q328" t="s">
         <v>2564</v>
@@ -35403,7 +35403,7 @@
         <v>3181</v>
       </c>
       <c r="S328" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T328" s="0">
         <v>1</v>
@@ -35472,7 +35472,7 @@
         <v>2034</v>
       </c>
       <c r="P329" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q329" t="s">
         <v>2565</v>
@@ -35481,7 +35481,7 @@
         <v>3182</v>
       </c>
       <c r="S329" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T329" s="0">
         <v>1</v>
@@ -35550,7 +35550,7 @@
         <v>2035</v>
       </c>
       <c r="P330" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q330" t="s">
         <v>2566</v>
@@ -35559,7 +35559,7 @@
         <v>3183</v>
       </c>
       <c r="S330" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T330" s="0">
         <v>1</v>
@@ -35628,7 +35628,7 @@
         <v>2036</v>
       </c>
       <c r="P331" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q331" t="s">
         <v>2567</v>
@@ -35637,7 +35637,7 @@
         <v>3184</v>
       </c>
       <c r="S331" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T331" s="0">
         <v>1</v>
@@ -35706,7 +35706,7 @@
         <v>2037</v>
       </c>
       <c r="P332" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q332" t="s">
         <v>2568</v>
@@ -35715,7 +35715,7 @@
         <v>3185</v>
       </c>
       <c r="S332" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T332" s="0">
         <v>1</v>
@@ -35784,7 +35784,7 @@
         <v>2038</v>
       </c>
       <c r="P333" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q333" t="s">
         <v>2569</v>
@@ -35793,7 +35793,7 @@
         <v>3186</v>
       </c>
       <c r="S333" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T333" s="0">
         <v>1</v>
@@ -35862,7 +35862,7 @@
         <v>2039</v>
       </c>
       <c r="P334" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q334" t="s">
         <v>2570</v>
@@ -35871,7 +35871,7 @@
         <v>3187</v>
       </c>
       <c r="S334" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T334" s="0">
         <v>1</v>
@@ -35940,7 +35940,7 @@
         <v>2040</v>
       </c>
       <c r="P335" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q335" t="s">
         <v>2571</v>
@@ -35949,7 +35949,7 @@
         <v>3188</v>
       </c>
       <c r="S335" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T335" s="0">
         <v>1</v>
@@ -36018,7 +36018,7 @@
         <v>2041</v>
       </c>
       <c r="P336" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q336" t="s">
         <v>2572</v>
@@ -36027,7 +36027,7 @@
         <v>3189</v>
       </c>
       <c r="S336" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T336" s="0">
         <v>1</v>
@@ -36096,7 +36096,7 @@
         <v>2042</v>
       </c>
       <c r="P337" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q337" t="s">
         <v>2573</v>
@@ -36105,7 +36105,7 @@
         <v>3190</v>
       </c>
       <c r="S337" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T337" s="0">
         <v>1</v>
@@ -36174,7 +36174,7 @@
         <v>1823</v>
       </c>
       <c r="P338" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q338" t="s">
         <v>2574</v>
@@ -36183,7 +36183,7 @@
         <v>2950</v>
       </c>
       <c r="S338" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T338" s="0">
         <v>1</v>
@@ -36252,7 +36252,7 @@
         <v>1860</v>
       </c>
       <c r="P339" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q339" t="s">
         <v>2575</v>
@@ -36261,7 +36261,7 @@
         <v>2908</v>
       </c>
       <c r="S339" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T339" s="0"/>
       <c r="U339" s="0">
@@ -36326,7 +36326,7 @@
         <v>2043</v>
       </c>
       <c r="P340" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q340" t="s">
         <v>2576</v>
@@ -36335,7 +36335,7 @@
         <v>3191</v>
       </c>
       <c r="S340" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T340" s="0">
         <v>1</v>
@@ -36404,7 +36404,7 @@
         <v>2044</v>
       </c>
       <c r="P341" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q341" t="s">
         <v>2577</v>
@@ -36413,7 +36413,7 @@
         <v>3192</v>
       </c>
       <c r="S341" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T341" s="0">
         <v>1</v>
@@ -36482,7 +36482,7 @@
         <v>1823</v>
       </c>
       <c r="P342" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q342" t="s">
         <v>2578</v>
@@ -36491,7 +36491,7 @@
         <v>2908</v>
       </c>
       <c r="S342" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T342" s="0"/>
       <c r="U342" s="0">
@@ -36556,7 +36556,7 @@
         <v>2045</v>
       </c>
       <c r="P343" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q343" t="s">
         <v>2579</v>
@@ -36565,7 +36565,7 @@
         <v>3193</v>
       </c>
       <c r="S343" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T343" s="0">
         <v>1</v>
@@ -36706,7 +36706,7 @@
         <v>1995</v>
       </c>
       <c r="P345" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q345" t="s">
         <v>2580</v>
@@ -36715,7 +36715,7 @@
         <v>3194</v>
       </c>
       <c r="S345" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T345" s="0"/>
       <c r="U345" s="0">
@@ -36780,7 +36780,7 @@
         <v>2046</v>
       </c>
       <c r="P346" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q346" t="s">
         <v>2581</v>
@@ -36789,7 +36789,7 @@
         <v>3195</v>
       </c>
       <c r="S346" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T346" s="0"/>
       <c r="U346" s="0">
@@ -36854,7 +36854,7 @@
         <v>2047</v>
       </c>
       <c r="P347" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q347" t="s">
         <v>2582</v>
@@ -36863,7 +36863,7 @@
         <v>2047</v>
       </c>
       <c r="S347" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T347" s="0">
         <v>1</v>
@@ -36932,7 +36932,7 @@
         <v>2048</v>
       </c>
       <c r="P348" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q348" t="s">
         <v>2583</v>
@@ -36941,7 +36941,7 @@
         <v>3196</v>
       </c>
       <c r="S348" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T348" s="0">
         <v>1</v>
@@ -37010,7 +37010,7 @@
         <v>2049</v>
       </c>
       <c r="P349" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q349" t="s">
         <v>2584</v>
@@ -37019,7 +37019,7 @@
         <v>3197</v>
       </c>
       <c r="S349" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T349" s="0">
         <v>1</v>
@@ -37088,7 +37088,7 @@
         <v>2050</v>
       </c>
       <c r="P350" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q350" t="s">
         <v>2585</v>
@@ -37097,7 +37097,7 @@
         <v>3198</v>
       </c>
       <c r="S350" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T350" s="0">
         <v>1</v>
@@ -37238,7 +37238,7 @@
         <v>1823</v>
       </c>
       <c r="P352" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q352" t="s">
         <v>656</v>
@@ -37312,7 +37312,7 @@
         <v>2051</v>
       </c>
       <c r="P353" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q353" t="s">
         <v>2586</v>
@@ -37321,7 +37321,7 @@
         <v>3199</v>
       </c>
       <c r="S353" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T353" s="0">
         <v>1</v>
@@ -37390,7 +37390,7 @@
         <v>1845</v>
       </c>
       <c r="P354" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q354" t="s">
         <v>2587</v>
@@ -37399,7 +37399,7 @@
         <v>3200</v>
       </c>
       <c r="S354" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T354" s="0">
         <v>1</v>
@@ -37468,7 +37468,7 @@
         <v>2052</v>
       </c>
       <c r="P355" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q355" t="s">
         <v>2588</v>
@@ -37477,7 +37477,7 @@
         <v>2950</v>
       </c>
       <c r="S355" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T355" s="0">
         <v>1</v>
@@ -37546,7 +37546,7 @@
         <v>2053</v>
       </c>
       <c r="P356" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q356" t="s">
         <v>2589</v>
@@ -37555,7 +37555,7 @@
         <v>3201</v>
       </c>
       <c r="S356" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T356" s="0"/>
       <c r="U356" s="0">
@@ -37620,7 +37620,7 @@
         <v>2054</v>
       </c>
       <c r="P357" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q357" t="s">
         <v>2590</v>
@@ -37629,7 +37629,7 @@
         <v>3202</v>
       </c>
       <c r="S357" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T357" s="0"/>
       <c r="U357" s="0">
@@ -37694,7 +37694,7 @@
         <v>2055</v>
       </c>
       <c r="P358" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q358" t="s">
         <v>2591</v>
@@ -37703,7 +37703,7 @@
         <v>3203</v>
       </c>
       <c r="S358" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T358" s="0">
         <v>1</v>
@@ -37772,7 +37772,7 @@
         <v>2056</v>
       </c>
       <c r="P359" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q359" t="s">
         <v>2592</v>
@@ -37781,7 +37781,7 @@
         <v>3204</v>
       </c>
       <c r="S359" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T359" s="0">
         <v>1</v>
@@ -37850,7 +37850,7 @@
         <v>2057</v>
       </c>
       <c r="P360" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q360" t="s">
         <v>2593</v>
@@ -37859,7 +37859,7 @@
         <v>3205</v>
       </c>
       <c r="S360" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T360" s="0">
         <v>1</v>
@@ -37928,7 +37928,7 @@
         <v>2058</v>
       </c>
       <c r="P361" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q361" t="s">
         <v>2594</v>
@@ -37937,7 +37937,7 @@
         <v>3206</v>
       </c>
       <c r="S361" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T361" s="0">
         <v>1</v>
@@ -38006,7 +38006,7 @@
         <v>2059</v>
       </c>
       <c r="P362" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q362" t="s">
         <v>2595</v>
@@ -38015,7 +38015,7 @@
         <v>3207</v>
       </c>
       <c r="S362" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T362" s="0">
         <v>1</v>
@@ -38084,7 +38084,7 @@
         <v>2060</v>
       </c>
       <c r="P363" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q363" t="s">
         <v>2596</v>
@@ -38093,7 +38093,7 @@
         <v>3208</v>
       </c>
       <c r="S363" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T363" s="0">
         <v>1</v>
@@ -38162,7 +38162,7 @@
         <v>2061</v>
       </c>
       <c r="P364" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q364" t="s">
         <v>2597</v>
@@ -38171,7 +38171,7 @@
         <v>3209</v>
       </c>
       <c r="S364" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T364" s="0">
         <v>1</v>
@@ -38240,7 +38240,7 @@
         <v>2062</v>
       </c>
       <c r="P365" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q365" t="s">
         <v>2598</v>
@@ -38249,7 +38249,7 @@
         <v>3210</v>
       </c>
       <c r="S365" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T365" s="0"/>
       <c r="U365" s="0">
@@ -38314,7 +38314,7 @@
         <v>2063</v>
       </c>
       <c r="P366" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q366" t="s">
         <v>2599</v>
@@ -38323,7 +38323,7 @@
         <v>3211</v>
       </c>
       <c r="S366" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T366" s="0">
         <v>1</v>
@@ -38392,7 +38392,7 @@
         <v>2064</v>
       </c>
       <c r="P367" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q367" t="s">
         <v>2600</v>
@@ -38401,7 +38401,7 @@
         <v>3212</v>
       </c>
       <c r="S367" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T367" s="0">
         <v>1</v>
@@ -38470,7 +38470,7 @@
         <v>2065</v>
       </c>
       <c r="P368" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q368" t="s">
         <v>2601</v>
@@ -38479,7 +38479,7 @@
         <v>3213</v>
       </c>
       <c r="S368" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T368" s="0">
         <v>1</v>
@@ -38548,7 +38548,7 @@
         <v>2066</v>
       </c>
       <c r="P369" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q369" t="s">
         <v>2602</v>
@@ -38557,7 +38557,7 @@
         <v>3214</v>
       </c>
       <c r="S369" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T369" s="0"/>
       <c r="U369" s="0">
@@ -38622,7 +38622,7 @@
         <v>1946</v>
       </c>
       <c r="P370" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q370" t="s">
         <v>2603</v>
@@ -38631,7 +38631,7 @@
         <v>3215</v>
       </c>
       <c r="S370" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T370" s="0">
         <v>1</v>
@@ -38709,7 +38709,7 @@
         <v>3216</v>
       </c>
       <c r="S371" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T371" s="0"/>
       <c r="U371" s="0"/>
@@ -38781,7 +38781,7 @@
         <v>3217</v>
       </c>
       <c r="S372" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T372" s="0"/>
       <c r="U372" s="0"/>
@@ -38853,7 +38853,7 @@
         <v>2109</v>
       </c>
       <c r="S373" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T373" s="0"/>
       <c r="U373" s="0"/>
@@ -38925,7 +38925,7 @@
         <v>3218</v>
       </c>
       <c r="S374" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T374" s="0"/>
       <c r="U374" s="0"/>
@@ -38997,7 +38997,7 @@
         <v>3219</v>
       </c>
       <c r="S375" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T375" s="0"/>
       <c r="U375" s="0"/>
@@ -39069,7 +39069,7 @@
         <v>3220</v>
       </c>
       <c r="S376" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T376" s="0"/>
       <c r="U376" s="0"/>
@@ -39141,7 +39141,7 @@
         <v>3221</v>
       </c>
       <c r="S377" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T377" s="0"/>
       <c r="U377" s="0"/>
@@ -39204,7 +39204,7 @@
         <v>2067</v>
       </c>
       <c r="P378" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q378" t="s">
         <v>2611</v>
@@ -39213,7 +39213,7 @@
         <v>3222</v>
       </c>
       <c r="S378" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T378" s="0"/>
       <c r="U378" s="0">
@@ -39287,7 +39287,7 @@
         <v>3223</v>
       </c>
       <c r="S379" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T379" s="0"/>
       <c r="U379" s="0"/>
@@ -39359,7 +39359,7 @@
         <v>3224</v>
       </c>
       <c r="S380" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T380" s="0"/>
       <c r="U380" s="0"/>
@@ -39431,7 +39431,7 @@
         <v>3225</v>
       </c>
       <c r="S381" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T381" s="0"/>
       <c r="U381" s="0"/>
@@ -39503,7 +39503,7 @@
         <v>3226</v>
       </c>
       <c r="S382" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T382" s="0"/>
       <c r="U382" s="0"/>
@@ -39575,7 +39575,7 @@
         <v>3227</v>
       </c>
       <c r="S383" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T383" s="0"/>
       <c r="U383" s="0"/>
@@ -39647,7 +39647,7 @@
         <v>3228</v>
       </c>
       <c r="S384" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T384" s="0"/>
       <c r="U384" s="0"/>
@@ -39719,7 +39719,7 @@
         <v>3229</v>
       </c>
       <c r="S385" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T385" s="0"/>
       <c r="U385" s="0"/>
@@ -39791,7 +39791,7 @@
         <v>3230</v>
       </c>
       <c r="S386" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T386" s="0"/>
       <c r="U386" s="0"/>
@@ -39863,7 +39863,7 @@
         <v>3231</v>
       </c>
       <c r="S387" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T387" s="0"/>
       <c r="U387" s="0"/>
@@ -39935,7 +39935,7 @@
         <v>3232</v>
       </c>
       <c r="S388" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T388" s="0"/>
       <c r="U388" s="0"/>
@@ -39998,7 +39998,7 @@
         <v>2061</v>
       </c>
       <c r="P389" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q389" t="s">
         <v>656</v>
@@ -40072,7 +40072,7 @@
         <v>2068</v>
       </c>
       <c r="P390" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q390" t="s">
         <v>2622</v>
@@ -40081,7 +40081,7 @@
         <v>3233</v>
       </c>
       <c r="S390" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T390" s="0">
         <v>1</v>
@@ -40150,7 +40150,7 @@
         <v>2069</v>
       </c>
       <c r="P391" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q391" t="s">
         <v>2623</v>
@@ -40159,7 +40159,7 @@
         <v>3234</v>
       </c>
       <c r="S391" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T391" s="0">
         <v>1</v>
@@ -40228,7 +40228,7 @@
         <v>2070</v>
       </c>
       <c r="P392" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q392" t="s">
         <v>2624</v>
@@ -40237,7 +40237,7 @@
         <v>3235</v>
       </c>
       <c r="S392" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T392" s="0">
         <v>1</v>
@@ -40306,7 +40306,7 @@
         <v>2071</v>
       </c>
       <c r="P393" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q393" t="s">
         <v>2625</v>
@@ -40315,7 +40315,7 @@
         <v>3236</v>
       </c>
       <c r="S393" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T393" s="0">
         <v>1</v>
@@ -40384,7 +40384,7 @@
         <v>2072</v>
       </c>
       <c r="P394" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q394" t="s">
         <v>2626</v>
@@ -40393,7 +40393,7 @@
         <v>3237</v>
       </c>
       <c r="S394" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T394" s="0"/>
       <c r="U394" s="0">
@@ -40458,7 +40458,7 @@
         <v>2073</v>
       </c>
       <c r="P395" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q395" t="s">
         <v>2627</v>
@@ -40467,7 +40467,7 @@
         <v>3238</v>
       </c>
       <c r="S395" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T395" s="0"/>
       <c r="U395" s="0">
@@ -40532,7 +40532,7 @@
         <v>2074</v>
       </c>
       <c r="P396" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q396" t="s">
         <v>2628</v>
@@ -40541,7 +40541,7 @@
         <v>3239</v>
       </c>
       <c r="S396" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T396" s="0">
         <v>1</v>
@@ -40610,7 +40610,7 @@
         <v>2075</v>
       </c>
       <c r="P397" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q397" t="s">
         <v>2629</v>
@@ -40619,7 +40619,7 @@
         <v>3240</v>
       </c>
       <c r="S397" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T397" s="0">
         <v>1</v>
@@ -40688,7 +40688,7 @@
         <v>2076</v>
       </c>
       <c r="P398" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q398" t="s">
         <v>2630</v>
@@ -40697,7 +40697,7 @@
         <v>3241</v>
       </c>
       <c r="S398" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T398" s="0">
         <v>1</v>
@@ -40766,7 +40766,7 @@
         <v>2077</v>
       </c>
       <c r="P399" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q399" t="s">
         <v>2631</v>
@@ -40775,7 +40775,7 @@
         <v>2950</v>
       </c>
       <c r="S399" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T399" s="0">
         <v>1</v>
@@ -40844,7 +40844,7 @@
         <v>2078</v>
       </c>
       <c r="P400" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q400" t="s">
         <v>2632</v>
@@ -40853,7 +40853,7 @@
         <v>3242</v>
       </c>
       <c r="S400" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T400" s="0">
         <v>1</v>
@@ -40922,7 +40922,7 @@
         <v>2079</v>
       </c>
       <c r="P401" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q401" t="s">
         <v>2633</v>
@@ -40931,7 +40931,7 @@
         <v>3243</v>
       </c>
       <c r="S401" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T401" s="0"/>
       <c r="U401" s="0">
@@ -41005,7 +41005,7 @@
         <v>3244</v>
       </c>
       <c r="S402" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T402" s="0"/>
       <c r="U402" s="0"/>
@@ -41070,7 +41070,7 @@
         <v>2080</v>
       </c>
       <c r="P403" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q403" t="s">
         <v>2635</v>
@@ -41079,7 +41079,7 @@
         <v>3245</v>
       </c>
       <c r="S403" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T403" s="0">
         <v>1</v>
@@ -41148,7 +41148,7 @@
         <v>2081</v>
       </c>
       <c r="P404" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q404" t="s">
         <v>2636</v>
@@ -41157,7 +41157,7 @@
         <v>3246</v>
       </c>
       <c r="S404" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T404" s="0">
         <v>1</v>
@@ -41226,7 +41226,7 @@
         <v>2082</v>
       </c>
       <c r="P405" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q405" t="s">
         <v>2637</v>
@@ -41235,7 +41235,7 @@
         <v>3247</v>
       </c>
       <c r="S405" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T405" s="0">
         <v>1</v>
@@ -41304,7 +41304,7 @@
         <v>2083</v>
       </c>
       <c r="P406" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q406" t="s">
         <v>2638</v>
@@ -41313,7 +41313,7 @@
         <v>3248</v>
       </c>
       <c r="S406" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T406" s="0">
         <v>1</v>
@@ -41382,7 +41382,7 @@
         <v>2084</v>
       </c>
       <c r="P407" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q407" t="s">
         <v>2639</v>
@@ -41391,7 +41391,7 @@
         <v>3249</v>
       </c>
       <c r="S407" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T407" s="0">
         <v>1</v>
@@ -41460,7 +41460,7 @@
         <v>2085</v>
       </c>
       <c r="P408" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q408" t="s">
         <v>2640</v>
@@ -41469,7 +41469,7 @@
         <v>3250</v>
       </c>
       <c r="S408" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T408" s="0">
         <v>1</v>
@@ -41538,7 +41538,7 @@
         <v>2086</v>
       </c>
       <c r="P409" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q409" t="s">
         <v>2641</v>
@@ -41547,7 +41547,7 @@
         <v>3251</v>
       </c>
       <c r="S409" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T409" s="0">
         <v>1</v>
@@ -41616,7 +41616,7 @@
         <v>2087</v>
       </c>
       <c r="P410" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q410" t="s">
         <v>2642</v>
@@ -41625,7 +41625,7 @@
         <v>3252</v>
       </c>
       <c r="S410" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T410" s="0">
         <v>1</v>
@@ -41694,7 +41694,7 @@
         <v>2088</v>
       </c>
       <c r="P411" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q411" t="s">
         <v>2643</v>
@@ -41703,7 +41703,7 @@
         <v>3253</v>
       </c>
       <c r="S411" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T411" s="0"/>
       <c r="U411" s="0">
@@ -41768,7 +41768,7 @@
         <v>2089</v>
       </c>
       <c r="P412" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q412" t="s">
         <v>2644</v>
@@ -41777,7 +41777,7 @@
         <v>3254</v>
       </c>
       <c r="S412" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T412" s="0">
         <v>1</v>
@@ -41846,7 +41846,7 @@
         <v>2090</v>
       </c>
       <c r="P413" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q413" t="s">
         <v>2645</v>
@@ -41855,7 +41855,7 @@
         <v>3255</v>
       </c>
       <c r="S413" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T413" s="0"/>
       <c r="U413" s="0">
@@ -41920,7 +41920,7 @@
         <v>2091</v>
       </c>
       <c r="P414" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q414" t="s">
         <v>2646</v>
@@ -41929,7 +41929,7 @@
         <v>3256</v>
       </c>
       <c r="S414" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T414" s="0">
         <v>1</v>
@@ -41998,7 +41998,7 @@
         <v>2092</v>
       </c>
       <c r="P415" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q415" t="s">
         <v>2647</v>
@@ -42007,7 +42007,7 @@
         <v>3257</v>
       </c>
       <c r="S415" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T415" s="0">
         <v>1</v>
@@ -42076,7 +42076,7 @@
         <v>2093</v>
       </c>
       <c r="P416" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q416" t="s">
         <v>2648</v>
@@ -42085,7 +42085,7 @@
         <v>3258</v>
       </c>
       <c r="S416" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T416" s="0">
         <v>1</v>
@@ -42154,7 +42154,7 @@
         <v>2094</v>
       </c>
       <c r="P417" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q417" t="s">
         <v>2649</v>
@@ -42163,7 +42163,7 @@
         <v>3259</v>
       </c>
       <c r="S417" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T417" s="0">
         <v>1</v>
@@ -42232,7 +42232,7 @@
         <v>1983</v>
       </c>
       <c r="P418" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q418" t="s">
         <v>2650</v>
@@ -42241,7 +42241,7 @@
         <v>3260</v>
       </c>
       <c r="S418" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T418" s="0">
         <v>1</v>
@@ -42319,7 +42319,7 @@
         <v>3261</v>
       </c>
       <c r="S419" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T419" s="0"/>
       <c r="U419" s="0"/>
@@ -42384,7 +42384,7 @@
         <v>2095</v>
       </c>
       <c r="P420" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q420" t="s">
         <v>2652</v>
@@ -42393,7 +42393,7 @@
         <v>3262</v>
       </c>
       <c r="S420" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T420" s="0"/>
       <c r="U420" s="0">
@@ -42458,7 +42458,7 @@
         <v>2096</v>
       </c>
       <c r="P421" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q421" t="s">
         <v>2653</v>
@@ -42467,7 +42467,7 @@
         <v>3263</v>
       </c>
       <c r="S421" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T421" s="0">
         <v>1</v>
@@ -42536,7 +42536,7 @@
         <v>1823</v>
       </c>
       <c r="P422" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q422" t="s">
         <v>2654</v>
@@ -42545,7 +42545,7 @@
         <v>3264</v>
       </c>
       <c r="S422" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T422" s="0">
         <v>1</v>
@@ -42614,7 +42614,7 @@
         <v>2097</v>
       </c>
       <c r="P423" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q423" t="s">
         <v>2655</v>
@@ -42623,7 +42623,7 @@
         <v>3265</v>
       </c>
       <c r="S423" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T423" s="0">
         <v>1</v>
@@ -42692,7 +42692,7 @@
         <v>2098</v>
       </c>
       <c r="P424" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q424" t="s">
         <v>2656</v>
@@ -42701,7 +42701,7 @@
         <v>3266</v>
       </c>
       <c r="S424" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T424" s="0">
         <v>1</v>
@@ -42770,7 +42770,7 @@
         <v>2099</v>
       </c>
       <c r="P425" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q425" t="s">
         <v>2657</v>
@@ -42779,7 +42779,7 @@
         <v>3267</v>
       </c>
       <c r="S425" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T425" s="0">
         <v>1</v>
@@ -42857,7 +42857,7 @@
         <v>3268</v>
       </c>
       <c r="S426" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T426" s="0"/>
       <c r="U426" s="0"/>
@@ -42922,7 +42922,7 @@
         <v>2100</v>
       </c>
       <c r="P427" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q427" t="s">
         <v>2659</v>
@@ -42931,7 +42931,7 @@
         <v>3269</v>
       </c>
       <c r="S427" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T427" s="0">
         <v>1</v>
@@ -43000,7 +43000,7 @@
         <v>2101</v>
       </c>
       <c r="P428" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q428" t="s">
         <v>2660</v>
@@ -43009,7 +43009,7 @@
         <v>3270</v>
       </c>
       <c r="S428" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T428" s="0">
         <v>1</v>
@@ -43078,7 +43078,7 @@
         <v>2102</v>
       </c>
       <c r="P429" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q429" t="s">
         <v>2661</v>
@@ -43087,7 +43087,7 @@
         <v>3271</v>
       </c>
       <c r="S429" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T429" s="0">
         <v>1</v>
@@ -43156,7 +43156,7 @@
         <v>2103</v>
       </c>
       <c r="P430" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q430" t="s">
         <v>2662</v>
@@ -43165,7 +43165,7 @@
         <v>3272</v>
       </c>
       <c r="S430" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T430" s="0"/>
       <c r="U430" s="0">
@@ -43230,7 +43230,7 @@
         <v>2104</v>
       </c>
       <c r="P431" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q431" t="s">
         <v>2663</v>
@@ -43239,7 +43239,7 @@
         <v>3273</v>
       </c>
       <c r="S431" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T431" s="0">
         <v>1</v>
@@ -43308,7 +43308,7 @@
         <v>2105</v>
       </c>
       <c r="P432" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q432" t="s">
         <v>2664</v>
@@ -43317,7 +43317,7 @@
         <v>3274</v>
       </c>
       <c r="S432" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T432" s="0"/>
       <c r="U432" s="0">
@@ -43382,7 +43382,7 @@
         <v>2106</v>
       </c>
       <c r="P433" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q433" t="s">
         <v>2665</v>
@@ -43391,7 +43391,7 @@
         <v>3275</v>
       </c>
       <c r="S433" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T433" s="0">
         <v>1</v>
@@ -43460,7 +43460,7 @@
         <v>2107</v>
       </c>
       <c r="P434" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q434" t="s">
         <v>2666</v>
@@ -43469,7 +43469,7 @@
         <v>3276</v>
       </c>
       <c r="S434" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T434" s="0">
         <v>1</v>
@@ -43538,7 +43538,7 @@
         <v>1823</v>
       </c>
       <c r="P435" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q435" t="s">
         <v>2667</v>
@@ -43547,7 +43547,7 @@
         <v>3277</v>
       </c>
       <c r="S435" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T435" s="0">
         <v>1</v>
@@ -43616,7 +43616,7 @@
         <v>2108</v>
       </c>
       <c r="P436" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q436" t="s">
         <v>2668</v>
@@ -43625,7 +43625,7 @@
         <v>3278</v>
       </c>
       <c r="S436" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T436" s="0">
         <v>1</v>
@@ -43694,7 +43694,7 @@
         <v>2109</v>
       </c>
       <c r="P437" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q437" t="s">
         <v>2669</v>
@@ -43703,7 +43703,7 @@
         <v>3279</v>
       </c>
       <c r="S437" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T437" s="0">
         <v>1</v>
@@ -43772,7 +43772,7 @@
         <v>1823</v>
       </c>
       <c r="P438" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q438" t="s">
         <v>2670</v>
@@ -43781,7 +43781,7 @@
         <v>3268</v>
       </c>
       <c r="S438" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T438" s="0">
         <v>1</v>
@@ -43859,7 +43859,7 @@
         <v>3280</v>
       </c>
       <c r="S439" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T439" s="0"/>
       <c r="U439" s="0"/>
@@ -43931,7 +43931,7 @@
         <v>3281</v>
       </c>
       <c r="S440" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T440" s="0"/>
       <c r="U440" s="0"/>
@@ -44003,7 +44003,7 @@
         <v>3282</v>
       </c>
       <c r="S441" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T441" s="0"/>
       <c r="U441" s="0"/>
@@ -44075,7 +44075,7 @@
         <v>3283</v>
       </c>
       <c r="S442" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T442" s="0"/>
       <c r="U442" s="0"/>
@@ -44147,7 +44147,7 @@
         <v>3284</v>
       </c>
       <c r="S443" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T443" s="0"/>
       <c r="U443" s="0"/>
@@ -44219,7 +44219,7 @@
         <v>3285</v>
       </c>
       <c r="S444" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T444" s="0"/>
       <c r="U444" s="0"/>
@@ -44291,7 +44291,7 @@
         <v>3286</v>
       </c>
       <c r="S445" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T445" s="0"/>
       <c r="U445" s="0"/>
@@ -44363,7 +44363,7 @@
         <v>3287</v>
       </c>
       <c r="S446" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T446" s="0"/>
       <c r="U446" s="0"/>
@@ -44426,7 +44426,7 @@
         <v>2109</v>
       </c>
       <c r="P447" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q447" t="s">
         <v>2679</v>
@@ -44435,7 +44435,7 @@
         <v>3288</v>
       </c>
       <c r="S447" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T447" s="0"/>
       <c r="U447" s="0">
@@ -44509,7 +44509,7 @@
         <v>3289</v>
       </c>
       <c r="S448" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T448" s="0"/>
       <c r="U448" s="0"/>
@@ -44581,7 +44581,7 @@
         <v>3290</v>
       </c>
       <c r="S449" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T449" s="0"/>
       <c r="U449" s="0"/>
@@ -44653,7 +44653,7 @@
         <v>3291</v>
       </c>
       <c r="S450" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T450" s="0"/>
       <c r="U450" s="0"/>
@@ -44725,7 +44725,7 @@
         <v>3292</v>
       </c>
       <c r="S451" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T451" s="0"/>
       <c r="U451" s="0"/>
@@ -44797,7 +44797,7 @@
         <v>3293</v>
       </c>
       <c r="S452" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T452" s="0"/>
       <c r="U452" s="0"/>
@@ -44869,7 +44869,7 @@
         <v>3294</v>
       </c>
       <c r="S453" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T453" s="0"/>
       <c r="U453" s="0"/>
@@ -44932,7 +44932,7 @@
         <v>2110</v>
       </c>
       <c r="P454" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q454" t="s">
         <v>2686</v>
@@ -44941,7 +44941,7 @@
         <v>3295</v>
       </c>
       <c r="S454" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T454" s="0"/>
       <c r="U454" s="0">
@@ -45006,7 +45006,7 @@
         <v>2111</v>
       </c>
       <c r="P455" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q455" t="s">
         <v>2687</v>
@@ -45015,7 +45015,7 @@
         <v>3296</v>
       </c>
       <c r="S455" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T455" s="0">
         <v>1</v>
@@ -45084,7 +45084,7 @@
         <v>2112</v>
       </c>
       <c r="P456" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="Q456" t="s">
         <v>2688</v>
@@ -45093,7 +45093,7 @@
         <v>3297</v>
       </c>
       <c r="S456" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="T456" s="0">
         <v>1</v>
